--- a/result.xlsx
+++ b/result.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -477,7 +477,7 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
@@ -486,7 +486,7 @@
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Lisbon</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.5</v>
+        <v>33.39</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14.84</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>59.35</v>
       </c>
       <c r="F4" t="n">
-        <v>27.5</v>
+        <v>37.1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.220000000000001</v>
+        <v>34.06</v>
       </c>
       <c r="I4" t="n">
-        <v>5.48</v>
+        <v>21.28</v>
       </c>
       <c r="J4" t="n">
-        <v>13.69</v>
+        <v>56.76</v>
       </c>
       <c r="K4" t="n">
-        <v>9.59</v>
+        <v>39.02</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>-9.52</v>
+        <v>6.440000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>222.57</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>133.54</v>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>408.75</v>
       </c>
       <c r="F5" t="n">
-        <v>110</v>
+        <v>271.14</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -629,19 +629,19 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>49.3</v>
+        <v>141.9</v>
       </c>
       <c r="I5" t="n">
-        <v>32.86</v>
+        <v>85.14</v>
       </c>
       <c r="J5" t="n">
-        <v>87.64</v>
+        <v>227.04</v>
       </c>
       <c r="K5" t="n">
-        <v>60.25</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>-37.14</v>
+        <v>156.09</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>-48.39999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -654,36 +654,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>22.26</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>20.03</v>
       </c>
       <c r="E6" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="F6" t="n">
         <v>23</v>
       </c>
-      <c r="F6" t="n">
-        <v>20</v>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>McMeal at McDonalds (or Equivalent Combo Meal)</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12.05</v>
+        <v>19.87</v>
       </c>
       <c r="I6" t="n">
-        <v>10.95</v>
+        <v>19.01</v>
       </c>
       <c r="J6" t="n">
-        <v>13.69</v>
+        <v>25.54</v>
       </c>
       <c r="K6" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>-6.050000000000001</v>
+        <v>22.28</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>-1.02</v>
       </c>
     </row>
     <row r="7">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>33.39</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>22.26</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>44.51</v>
       </c>
       <c r="F7" t="n">
-        <v>5.5</v>
+        <v>33.38</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -713,19 +713,19 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>7.09</v>
       </c>
       <c r="I7" t="n">
-        <v>1.42</v>
+        <v>4.26</v>
       </c>
       <c r="J7" t="n">
-        <v>5.42</v>
+        <v>11.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>-1.58</v>
+        <v>7.8</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="8">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>36.91</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>25.97</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>48.22</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>37.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -755,19 +755,19 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.48</v>
+        <v>8.51</v>
       </c>
       <c r="I8" t="n">
-        <v>3.83</v>
+        <v>5.68</v>
       </c>
       <c r="J8" t="n">
-        <v>8.220000000000001</v>
+        <v>14.19</v>
       </c>
       <c r="K8" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>-1.17</v>
+        <v>9.93</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>-20.29</v>
       </c>
     </row>
     <row r="9">
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.01</v>
+        <v>14.44</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7.42</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>22.26</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>14.84</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -797,19 +797,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.93</v>
+        <v>5.35</v>
       </c>
       <c r="I9" t="n">
-        <v>1.64</v>
+        <v>2.27</v>
       </c>
       <c r="J9" t="n">
-        <v>4.38</v>
+        <v>9.08</v>
       </c>
       <c r="K9" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>-2.36</v>
+        <v>5.68</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>-5.15</v>
       </c>
     </row>
     <row r="10">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.32</v>
+        <v>3.39</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>10.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5</v>
+        <v>6.38</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -839,19 +839,19 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.52</v>
+        <v>4.59</v>
       </c>
       <c r="I10" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>2.46</v>
+        <v>8.51</v>
       </c>
       <c r="K10" t="n">
-        <v>1.78</v>
+        <v>5.68</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>-0.3999999999999999</v>
+        <v>0.9899999999999998</v>
       </c>
     </row>
     <row r="11">
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4.45</v>
       </c>
       <c r="F11" t="n">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -881,19 +881,19 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.27</v>
+        <v>3.22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="J11" t="n">
-        <v>2.19</v>
+        <v>5.68</v>
       </c>
       <c r="K11" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>0.2000000000000001</v>
+        <v>4.26</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.56</v>
+        <v>4.88</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="E12" t="n">
-        <v>5.4</v>
+        <v>8.18</v>
       </c>
       <c r="F12" t="n">
-        <v>4.45</v>
+        <v>5.71</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -923,19 +923,19 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="I12" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.95</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>-1.86</v>
+        <v>2.27</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>-1.54</v>
       </c>
     </row>
     <row r="13">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.61</v>
+        <v>4.04</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2.23</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>8.16</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -965,19 +965,19 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>3.58</v>
       </c>
       <c r="I13" t="n">
-        <v>1.1</v>
+        <v>2.13</v>
       </c>
       <c r="J13" t="n">
-        <v>3.62</v>
+        <v>7.09</v>
       </c>
       <c r="K13" t="n">
-        <v>2.36</v>
+        <v>4.61</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0.1000000000000001</v>
+        <v>-0.1000000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.96</v>
+        <v>5.2</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>3.71</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>10.9</v>
       </c>
       <c r="F14" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1007,19 +1007,19 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.02</v>
+        <v>5.68</v>
       </c>
       <c r="K14" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>-1.67</v>
+        <v>4.09</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>-1.21</v>
       </c>
     </row>
     <row r="15">
@@ -1032,16 +1032,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.46</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>4.8</v>
+        <v>5.04</v>
       </c>
       <c r="E15" t="n">
-        <v>8.4</v>
+        <v>14.24</v>
       </c>
       <c r="F15" t="n">
-        <v>6.6</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>7.02</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>3.41</v>
       </c>
       <c r="J15" t="n">
-        <v>5.23</v>
+        <v>10.22</v>
       </c>
       <c r="K15" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>-1.9</v>
+        <v>6.82</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>-1.63</v>
       </c>
     </row>
     <row r="16">
@@ -1074,16 +1074,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.42</v>
+        <v>26.26</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>11.87</v>
       </c>
       <c r="E16" t="n">
-        <v>32</v>
+        <v>66.77</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>39.32</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10.7</v>
+        <v>24.17</v>
       </c>
       <c r="I16" t="n">
-        <v>4.38</v>
+        <v>13.34</v>
       </c>
       <c r="J16" t="n">
-        <v>21.91</v>
+        <v>56.76</v>
       </c>
       <c r="K16" t="n">
-        <v>13.14</v>
+        <v>35.05</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>-9.620000000000001</v>
+        <v>1.470000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17.27</v>
+        <v>22.34</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11.13</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>37.1</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>24.12</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1133,19 +1133,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9.640000000000001</v>
+        <v>18.68</v>
       </c>
       <c r="I17" t="n">
-        <v>6.57</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>13.69</v>
+        <v>22.7</v>
       </c>
       <c r="K17" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>-3.43</v>
+        <v>16.6</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>-0.6300000000000008</v>
       </c>
     </row>
     <row r="18">
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25.53</v>
+        <v>28.55</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>14.84</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>44.51</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>29.67</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>14.05</v>
+        <v>29.74</v>
       </c>
       <c r="I18" t="n">
-        <v>7.67</v>
+        <v>17.03</v>
       </c>
       <c r="J18" t="n">
-        <v>20.2</v>
+        <v>56.48</v>
       </c>
       <c r="K18" t="n">
-        <v>13.93</v>
+        <v>36.75</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>-12.33</v>
+        <v>2.190000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1200,16 +1200,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.41</v>
+        <v>6.13</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3.71</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="F19" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.84</v>
       </c>
       <c r="J19" t="n">
-        <v>8.220000000000001</v>
+        <v>7.09</v>
       </c>
       <c r="K19" t="n">
-        <v>5.32</v>
+        <v>4.96</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0.4199999999999999</v>
+        <v>-0.8700000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1242,16 +1242,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.41</v>
+        <v>5.02</v>
       </c>
       <c r="D20" t="n">
-        <v>3.5</v>
+        <v>3.71</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5.25</v>
+        <v>6.3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1259,19 +1259,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.99</v>
+        <v>3.48</v>
       </c>
       <c r="I20" t="n">
-        <v>1.1</v>
+        <v>2.81</v>
       </c>
       <c r="J20" t="n">
-        <v>5.48</v>
+        <v>7.09</v>
       </c>
       <c r="K20" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>-2.4</v>
+        <v>4.95</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.27</v>
+        <v>4.96</v>
       </c>
       <c r="D21" t="n">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>10.9</v>
       </c>
       <c r="F21" t="n">
-        <v>4.94</v>
+        <v>6.94</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1301,19 +1301,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2.43</v>
+        <v>4.06</v>
       </c>
       <c r="I21" t="n">
-        <v>1.1</v>
+        <v>2.53</v>
       </c>
       <c r="J21" t="n">
-        <v>6.03</v>
+        <v>7.66</v>
       </c>
       <c r="K21" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>-1.79</v>
+        <v>5.1</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>-0.4400000000000004</v>
       </c>
     </row>
     <row r="22">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.75</v>
+        <v>4.42</v>
       </c>
       <c r="D22" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8.18</v>
       </c>
       <c r="F22" t="n">
-        <v>4.45</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1343,19 +1343,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>5.39</v>
       </c>
       <c r="I22" t="n">
-        <v>0.82</v>
+        <v>2.84</v>
       </c>
       <c r="J22" t="n">
-        <v>3.83</v>
+        <v>7.09</v>
       </c>
       <c r="K22" t="n">
-        <v>2.33</v>
+        <v>4.96</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>-1.08</v>
+        <v>0.6099999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1368,16 +1368,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.05</v>
+        <v>2.99</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>5.19</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3.34</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1385,19 +1385,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.05</v>
+        <v>3.13</v>
       </c>
       <c r="I23" t="n">
-        <v>0.82</v>
+        <v>1.42</v>
       </c>
       <c r="J23" t="n">
-        <v>3.94</v>
+        <v>5.68</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>-0.18</v>
+        <v>3.55</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>-0.06000000000000005</v>
       </c>
     </row>
     <row r="24">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="E24" t="n">
-        <v>2.75</v>
+        <v>3.71</v>
       </c>
       <c r="F24" t="n">
-        <v>1.88</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.91</v>
+        <v>3.33</v>
       </c>
       <c r="I24" t="n">
-        <v>0.82</v>
+        <v>2.27</v>
       </c>
       <c r="J24" t="n">
-        <v>3.34</v>
+        <v>5.68</v>
       </c>
       <c r="K24" t="n">
-        <v>2.08</v>
+        <v>3.97</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>-0.18</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="25">
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.86</v>
+        <v>4.58</v>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>2.23</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>2.75</v>
+        <v>5.46</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.44</v>
+        <v>3.37</v>
       </c>
       <c r="I25" t="n">
-        <v>0.71</v>
+        <v>1.42</v>
       </c>
       <c r="J25" t="n">
-        <v>2.46</v>
+        <v>5.68</v>
       </c>
       <c r="K25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>-0.79</v>
+        <v>3.55</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1497,13 +1497,13 @@
         <v>1.68</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="F26" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1511,19 +1511,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.49</v>
+        <v>2.18</v>
       </c>
       <c r="I26" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="J26" t="n">
-        <v>2.19</v>
+        <v>5.11</v>
       </c>
       <c r="K26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>-0.18</v>
+        <v>2.98</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>-0.2600000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1536,16 +1536,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>44.51</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>18.55</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>74.19</v>
       </c>
       <c r="F27" t="n">
-        <v>17.5</v>
+        <v>46.37</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1553,19 +1553,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>21.91</v>
+        <v>11.35</v>
       </c>
       <c r="I27" t="n">
-        <v>10.95</v>
+        <v>8.49</v>
       </c>
       <c r="J27" t="n">
-        <v>32.86</v>
+        <v>25.54</v>
       </c>
       <c r="K27" t="n">
-        <v>21.9</v>
+        <v>17.02</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0.9499999999999993</v>
+        <v>-10.06</v>
       </c>
     </row>
     <row r="28">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.47</v>
+        <v>9.23</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>4.45</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>18.55</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1595,19 +1595,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.89</v>
+        <v>3.44</v>
       </c>
       <c r="I28" t="n">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.74</v>
+        <v>5.68</v>
       </c>
       <c r="K28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>-1.9</v>
+        <v>3.72</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>-2.7</v>
       </c>
     </row>
     <row r="29">
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.16</v>
+        <v>17.23</v>
       </c>
       <c r="D29" t="n">
-        <v>3.6</v>
+        <v>5.19</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>35.61</v>
       </c>
       <c r="F29" t="n">
-        <v>5.3</v>
+        <v>20.4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1637,19 +1637,19 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.39</v>
+        <v>5.57</v>
       </c>
       <c r="I29" t="n">
-        <v>1.64</v>
+        <v>2.55</v>
       </c>
       <c r="J29" t="n">
-        <v>5.54</v>
+        <v>8.91</v>
       </c>
       <c r="K29" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>-1.96</v>
+        <v>5.73</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>-2.640000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.9</v>
+        <v>16.69</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>14.84</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>18.55</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>16.7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1679,19 +1679,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4.38</v>
+        <v>15.04</v>
       </c>
       <c r="I30" t="n">
-        <v>3.29</v>
+        <v>14.19</v>
       </c>
       <c r="J30" t="n">
-        <v>6.03</v>
+        <v>19.87</v>
       </c>
       <c r="K30" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>-3.71</v>
+        <v>17.03</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>-0.6500000000000004</v>
       </c>
     </row>
     <row r="31">
@@ -1704,16 +1704,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4.08</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>7.42</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>5.08</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1721,19 +1721,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.45</v>
+        <v>5.11</v>
       </c>
       <c r="I31" t="n">
-        <v>1.37</v>
+        <v>4.26</v>
       </c>
       <c r="J31" t="n">
-        <v>1.48</v>
+        <v>5.68</v>
       </c>
       <c r="K31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L31" s="3" t="n">
-        <v>0.3700000000000001</v>
+        <v>4.97</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="32">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>259.67</v>
       </c>
       <c r="D32" t="n">
-        <v>30</v>
+        <v>163.22</v>
       </c>
       <c r="E32" t="n">
-        <v>40</v>
+        <v>267.08</v>
       </c>
       <c r="F32" t="n">
-        <v>35</v>
+        <v>215.15</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1763,19 +1763,19 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>69.84</v>
+        <v>113.52</v>
       </c>
       <c r="I32" t="n">
-        <v>54.77</v>
+        <v>85.14</v>
       </c>
       <c r="J32" t="n">
-        <v>95.26000000000001</v>
+        <v>113.52</v>
       </c>
       <c r="K32" t="n">
-        <v>75.02</v>
+        <v>99.33</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>24.77</v>
+        <v>-78.08</v>
       </c>
     </row>
     <row r="33">
@@ -1788,16 +1788,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>8.9</v>
       </c>
       <c r="D33" t="n">
-        <v>2.5</v>
+        <v>5.19</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>12.61</v>
       </c>
       <c r="F33" t="n">
-        <v>4.25</v>
+        <v>8.9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2.74</v>
+        <v>9.93</v>
       </c>
       <c r="I33" t="n">
-        <v>2.19</v>
+        <v>8.51</v>
       </c>
       <c r="J33" t="n">
-        <v>4.38</v>
+        <v>11.35</v>
       </c>
       <c r="K33" t="n">
-        <v>3.28</v>
+        <v>9.93</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>-0.3100000000000001</v>
+        <v>3.319999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>4.45</v>
       </c>
       <c r="F34" t="n">
-        <v>1.97</v>
+        <v>2.96</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1847,19 +1847,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.83</v>
+        <v>1.42</v>
       </c>
       <c r="I34" t="n">
-        <v>2.74</v>
+        <v>1.33</v>
       </c>
       <c r="J34" t="n">
-        <v>5.48</v>
+        <v>2.84</v>
       </c>
       <c r="K34" t="n">
-        <v>4.11</v>
+        <v>2.08</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1.8</v>
+        <v>-0.1499999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1872,16 +1872,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>22.26</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>22.26</v>
       </c>
       <c r="E35" t="n">
-        <v>18</v>
+        <v>37.1</v>
       </c>
       <c r="F35" t="n">
-        <v>12</v>
+        <v>29.68</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1889,19 +1889,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>13.69</v>
+        <v>42</v>
       </c>
       <c r="I35" t="n">
-        <v>8.380000000000001</v>
+        <v>42</v>
       </c>
       <c r="J35" t="n">
-        <v>16.43</v>
+        <v>70.95</v>
       </c>
       <c r="K35" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>2.380000000000001</v>
+        <v>56.48</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>19.74</v>
       </c>
     </row>
     <row r="36">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.85</v>
+        <v>3.02</v>
       </c>
       <c r="D36" t="n">
-        <v>3.5</v>
+        <v>2.37</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>3.43</v>
       </c>
       <c r="F36" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1931,19 +1931,19 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.34</v>
+        <v>5.7</v>
       </c>
       <c r="I36" t="n">
-        <v>1.3</v>
+        <v>5.11</v>
       </c>
       <c r="J36" t="n">
-        <v>1.45</v>
+        <v>6.23</v>
       </c>
       <c r="K36" t="n">
-        <v>1.38</v>
+        <v>5.67</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>-2.2</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="37">
@@ -1956,16 +1956,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>50000</v>
+        <v>73448.14</v>
       </c>
       <c r="D37" t="n">
-        <v>50000</v>
+        <v>59352.03</v>
       </c>
       <c r="E37" t="n">
-        <v>60000</v>
+        <v>107575.55</v>
       </c>
       <c r="F37" t="n">
-        <v>55000</v>
+        <v>83463.78999999999</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1973,19 +1973,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>30673.3</v>
+        <v>76624.66</v>
       </c>
       <c r="I37" t="n">
-        <v>24916.58</v>
+        <v>70948.75999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>38341.62</v>
+        <v>85138.50999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>31629.1</v>
+        <v>78043.63</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>-25083.42</v>
+        <v>11596.73</v>
       </c>
     </row>
     <row r="38">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>56566.67</v>
+        <v>57145.21</v>
       </c>
       <c r="D38" t="n">
-        <v>52400</v>
+        <v>51933.02</v>
       </c>
       <c r="E38" t="n">
-        <v>60000</v>
+        <v>63061.53</v>
       </c>
       <c r="F38" t="n">
-        <v>56200</v>
+        <v>57497.27</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2015,19 +2015,19 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>46248.21</v>
+        <v>84035.25999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>38341.62</v>
+        <v>73786.71000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>54773.74</v>
+        <v>99328.25999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>46557.68</v>
+        <v>86557.48</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>-14058.38</v>
+        <v>21853.69000000001</v>
       </c>
     </row>
     <row r="39">
@@ -2040,16 +2040,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>209.43</v>
+        <v>518.66</v>
       </c>
       <c r="D39" t="n">
-        <v>120</v>
+        <v>370.95</v>
       </c>
       <c r="E39" t="n">
-        <v>310</v>
+        <v>816.09</v>
       </c>
       <c r="F39" t="n">
-        <v>215</v>
+        <v>593.52</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2057,19 +2057,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>178.25</v>
+        <v>347.57</v>
       </c>
       <c r="I39" t="n">
-        <v>109.55</v>
+        <v>241.23</v>
       </c>
       <c r="J39" t="n">
-        <v>325.9</v>
+        <v>510.83</v>
       </c>
       <c r="K39" t="n">
-        <v>217.72</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>-10.45</v>
+        <v>376.03</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>-129.72</v>
       </c>
     </row>
     <row r="40">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3</v>
+        <v>0.74</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2099,19 +2099,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.49</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="J40" t="n">
-        <v>0.27</v>
+        <v>0.71</v>
       </c>
       <c r="K40" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>-0.05</v>
+        <v>0.42</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>-0.07999999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>54.97</v>
+        <v>266.22</v>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>185.48</v>
       </c>
       <c r="E41" t="n">
-        <v>80</v>
+        <v>333.86</v>
       </c>
       <c r="F41" t="n">
-        <v>60</v>
+        <v>259.67</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2141,19 +2141,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>51.95</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>41.08</v>
+        <v>76.62</v>
       </c>
       <c r="J41" t="n">
-        <v>76.68000000000001</v>
+        <v>170.28</v>
       </c>
       <c r="K41" t="n">
-        <v>58.88</v>
+        <v>123.45</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>1.079999999999998</v>
+        <v>-108.86</v>
       </c>
     </row>
     <row r="42">
@@ -2166,16 +2166,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>135.53</v>
+        <v>205.25</v>
       </c>
       <c r="D42" t="n">
-        <v>80</v>
+        <v>111.29</v>
       </c>
       <c r="E42" t="n">
-        <v>200</v>
+        <v>408.05</v>
       </c>
       <c r="F42" t="n">
-        <v>140</v>
+        <v>259.67</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2183,19 +2183,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>44.16</v>
+        <v>107.43</v>
       </c>
       <c r="I42" t="n">
-        <v>27.39</v>
+        <v>70.95</v>
       </c>
       <c r="J42" t="n">
-        <v>65.73</v>
+        <v>198.66</v>
       </c>
       <c r="K42" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>-52.61</v>
+        <v>134.8</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>-40.34</v>
       </c>
     </row>
     <row r="43">
@@ -2208,16 +2208,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>37.39</v>
+        <v>103.57</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>55.64</v>
       </c>
       <c r="E43" t="n">
-        <v>50</v>
+        <v>148.38</v>
       </c>
       <c r="F43" t="n">
-        <v>35</v>
+        <v>102.01</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2225,19 +2225,19 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>21.74</v>
+        <v>32.16</v>
       </c>
       <c r="I43" t="n">
-        <v>10.95</v>
+        <v>22.7</v>
       </c>
       <c r="J43" t="n">
-        <v>32.86</v>
+        <v>42.57</v>
       </c>
       <c r="K43" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>-9.050000000000001</v>
+        <v>32.64</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>-32.94</v>
       </c>
     </row>
     <row r="44">
@@ -2250,16 +2250,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>34.87</v>
       </c>
       <c r="D44" t="n">
-        <v>14</v>
+        <v>27.26</v>
       </c>
       <c r="E44" t="n">
-        <v>22</v>
+        <v>51.93</v>
       </c>
       <c r="F44" t="n">
-        <v>18</v>
+        <v>39.6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2267,19 +2267,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8.49</v>
+        <v>21.28</v>
       </c>
       <c r="I44" t="n">
-        <v>6.57</v>
+        <v>19.87</v>
       </c>
       <c r="J44" t="n">
-        <v>13.69</v>
+        <v>28.38</v>
       </c>
       <c r="K44" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>-7.43</v>
+        <v>24.12</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>-7.390000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2292,16 +2292,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>583.33</v>
+        <v>2005.38</v>
       </c>
       <c r="D45" t="n">
-        <v>350</v>
+        <v>1112.85</v>
       </c>
       <c r="E45" t="n">
-        <v>800</v>
+        <v>3709.5</v>
       </c>
       <c r="F45" t="n">
-        <v>575</v>
+        <v>2411.18</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>557.1900000000001</v>
+        <v>1192.79</v>
       </c>
       <c r="I45" t="n">
-        <v>273.87</v>
+        <v>851.39</v>
       </c>
       <c r="J45" t="n">
-        <v>1095.47</v>
+        <v>1702.77</v>
       </c>
       <c r="K45" t="n">
-        <v>684.67</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>-76.13</v>
+        <v>1277.08</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <v>-261.4599999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14313.44</v>
+        <v>31128.7</v>
       </c>
       <c r="D46" t="n">
-        <v>5000</v>
+        <v>18547.51</v>
       </c>
       <c r="E46" t="n">
-        <v>28000</v>
+        <v>54388.58</v>
       </c>
       <c r="F46" t="n">
-        <v>16500</v>
+        <v>36468.04</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2351,19 +2351,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12011.56</v>
+        <v>27431.18</v>
       </c>
       <c r="I46" t="n">
-        <v>5477.37</v>
+        <v>17027.7</v>
       </c>
       <c r="J46" t="n">
-        <v>19718.55</v>
+        <v>44272.03</v>
       </c>
       <c r="K46" t="n">
-        <v>12597.96</v>
+        <v>30649.86</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>477.3699999999999</v>
+        <v>-1519.809999999998</v>
       </c>
     </row>
     <row r="47">
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>252.47</v>
+        <v>178.89</v>
       </c>
       <c r="D47" t="n">
-        <v>80</v>
+        <v>59.35</v>
       </c>
       <c r="E47" t="n">
-        <v>400</v>
+        <v>333.86</v>
       </c>
       <c r="F47" t="n">
-        <v>240</v>
+        <v>196.6</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2393,19 +2393,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>102.5</v>
+        <v>216.57</v>
       </c>
       <c r="I47" t="n">
-        <v>49.3</v>
+        <v>85.14</v>
       </c>
       <c r="J47" t="n">
-        <v>166.51</v>
+        <v>326.36</v>
       </c>
       <c r="K47" t="n">
-        <v>107.9</v>
+        <v>205.75</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>-30.7</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="48">
@@ -2418,16 +2418,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>122.23</v>
+        <v>149.76</v>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
+        <v>74.19</v>
       </c>
       <c r="E48" t="n">
-        <v>199</v>
+        <v>222.57</v>
       </c>
       <c r="F48" t="n">
-        <v>129.5</v>
+        <v>148.38</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2435,19 +2435,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>77.36</v>
+        <v>89.63</v>
       </c>
       <c r="I48" t="n">
-        <v>32.86</v>
+        <v>56.76</v>
       </c>
       <c r="J48" t="n">
-        <v>164.32</v>
+        <v>141.9</v>
       </c>
       <c r="K48" t="n">
-        <v>98.59</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>-27.14</v>
+        <v>99.33</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>-17.43</v>
       </c>
     </row>
     <row r="49">
@@ -2460,16 +2460,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>322.26</v>
+        <v>231.23</v>
       </c>
       <c r="D49" t="n">
-        <v>150</v>
+        <v>133.54</v>
       </c>
       <c r="E49" t="n">
-        <v>400</v>
+        <v>370.95</v>
       </c>
       <c r="F49" t="n">
-        <v>275</v>
+        <v>252.24</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>158.55</v>
+        <v>195.11</v>
       </c>
       <c r="I49" t="n">
-        <v>109.55</v>
+        <v>141.9</v>
       </c>
       <c r="J49" t="n">
-        <v>246.48</v>
+        <v>255.42</v>
       </c>
       <c r="K49" t="n">
-        <v>178.02</v>
+        <v>198.66</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>-40.45</v>
+        <v>8.360000000000014</v>
       </c>
     </row>
     <row r="50">
@@ -2502,16 +2502,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>423.68</v>
+        <v>240.55</v>
       </c>
       <c r="D50" t="n">
-        <v>200</v>
+        <v>111.29</v>
       </c>
       <c r="E50" t="n">
-        <v>650</v>
+        <v>370.95</v>
       </c>
       <c r="F50" t="n">
-        <v>425</v>
+        <v>241.12</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2519,19 +2519,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>145.46</v>
+        <v>258.35</v>
       </c>
       <c r="I50" t="n">
-        <v>82.16</v>
+        <v>127.71</v>
       </c>
       <c r="J50" t="n">
-        <v>219.09</v>
+        <v>397.31</v>
       </c>
       <c r="K50" t="n">
-        <v>150.62</v>
+        <v>262.51</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>-117.84</v>
+        <v>16.41999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2544,16 +2544,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2110.67</v>
+        <v>4755.37</v>
       </c>
       <c r="D51" t="n">
-        <v>1422</v>
+        <v>2967.6</v>
       </c>
       <c r="E51" t="n">
-        <v>3008.5</v>
+        <v>8175</v>
       </c>
       <c r="F51" t="n">
-        <v>2215.25</v>
+        <v>5571.3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2561,19 +2561,19 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>871.97</v>
+        <v>3321.9</v>
       </c>
       <c r="I51" t="n">
-        <v>657.28</v>
+        <v>2412.26</v>
       </c>
       <c r="J51" t="n">
-        <v>1369.34</v>
+        <v>4824.52</v>
       </c>
       <c r="K51" t="n">
-        <v>1013.31</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>-764.72</v>
+        <v>3618.39</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>-555.3399999999997</v>
       </c>
     </row>
     <row r="52">
@@ -2586,16 +2586,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1416.5</v>
+        <v>2802.16</v>
       </c>
       <c r="D52" t="n">
-        <v>957.25</v>
+        <v>1854.75</v>
       </c>
       <c r="E52" t="n">
-        <v>2188</v>
+        <v>4451.4</v>
       </c>
       <c r="F52" t="n">
-        <v>1572.62</v>
+        <v>3153.08</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2603,19 +2603,19 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>670.98</v>
+        <v>2190.66</v>
       </c>
       <c r="I52" t="n">
-        <v>438.19</v>
+        <v>1702.77</v>
       </c>
       <c r="J52" t="n">
-        <v>985.9299999999999</v>
+        <v>2837.95</v>
       </c>
       <c r="K52" t="n">
-        <v>712.0599999999999</v>
-      </c>
-      <c r="L52" s="2" t="n">
-        <v>-519.0599999999999</v>
+        <v>2270.36</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>-151.98</v>
       </c>
     </row>
     <row r="53">
@@ -2628,16 +2628,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3902.96</v>
+        <v>8780.51</v>
       </c>
       <c r="D53" t="n">
-        <v>2735</v>
+        <v>5564.25</v>
       </c>
       <c r="E53" t="n">
-        <v>6000</v>
+        <v>13354.21</v>
       </c>
       <c r="F53" t="n">
-        <v>4367.5</v>
+        <v>9459.23</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2645,19 +2645,19 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1593.75</v>
+        <v>5788.37</v>
       </c>
       <c r="I53" t="n">
-        <v>1095.47</v>
+        <v>4256.93</v>
       </c>
       <c r="J53" t="n">
-        <v>2738.69</v>
+        <v>9932.83</v>
       </c>
       <c r="K53" t="n">
-        <v>1917.08</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>-1639.53</v>
+        <v>7094.88</v>
+      </c>
+      <c r="L53" s="3" t="n">
+        <v>-1307.32</v>
       </c>
     </row>
     <row r="54">
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2495.72</v>
+        <v>5409.89</v>
       </c>
       <c r="D54" t="n">
-        <v>1914.5</v>
+        <v>3709.5</v>
       </c>
       <c r="E54" t="n">
-        <v>4102.5</v>
+        <v>8902.799999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>3008.5</v>
+        <v>6306.15</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2687,19 +2687,19 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1249.9</v>
+        <v>3557.99</v>
       </c>
       <c r="I54" t="n">
-        <v>821.61</v>
+        <v>2696.05</v>
       </c>
       <c r="J54" t="n">
-        <v>2179.65</v>
+        <v>5675.9</v>
       </c>
       <c r="K54" t="n">
-        <v>1500.63</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>-1092.89</v>
+        <v>4185.98</v>
+      </c>
+      <c r="L54" s="3" t="n">
+        <v>-1013.45</v>
       </c>
     </row>
     <row r="55">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4903.43</v>
+        <v>10218.9</v>
       </c>
       <c r="D55" t="n">
-        <v>3200</v>
+        <v>5935.2</v>
       </c>
       <c r="E55" t="n">
-        <v>6800</v>
+        <v>17027.7</v>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>11481.45</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2729,19 +2729,19 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3770.19</v>
+        <v>15560.26</v>
       </c>
       <c r="I55" t="n">
-        <v>2464.82</v>
+        <v>11919.39</v>
       </c>
       <c r="J55" t="n">
-        <v>4929.64</v>
+        <v>22703.6</v>
       </c>
       <c r="K55" t="n">
-        <v>3697.23</v>
+        <v>17311.5</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>-735.1799999999998</v>
+        <v>5984.19</v>
       </c>
     </row>
     <row r="56">
@@ -2754,16 +2754,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2546.78</v>
+        <v>6478.76</v>
       </c>
       <c r="D56" t="n">
-        <v>1914.5</v>
+        <v>4451.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3500</v>
+        <v>9537.5</v>
       </c>
       <c r="F56" t="n">
-        <v>2707.25</v>
+        <v>6994.45</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2771,19 +2771,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3053.88</v>
+        <v>8479.190000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>2464.82</v>
+        <v>5675.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3834.16</v>
+        <v>12770.78</v>
       </c>
       <c r="K56" t="n">
-        <v>3149.49</v>
-      </c>
-      <c r="L56" s="3" t="n">
-        <v>550.3200000000002</v>
+        <v>9223.34</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>1224.5</v>
       </c>
     </row>
     <row r="57">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>12.25</v>
+        <v>3.89</v>
       </c>
       <c r="D57" t="n">
-        <v>8.5</v>
+        <v>2.49</v>
       </c>
       <c r="E57" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>13.25</v>
+        <v>3.74</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2813,19 +2813,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>11.6</v>
+        <v>2.42</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="J57" t="n">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="K57" t="n">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>0.5</v>
+        <v>-1.09</v>
       </c>
     </row>
   </sheetData>
